--- a/PointsTiming/التجمع/Daily/تجمع يوم 15-12-2025.xlsx
+++ b/PointsTiming/التجمع/Daily/تجمع يوم 15-12-2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7510" tabRatio="926" activeTab="5"/>
+    <workbookView windowWidth="19200" windowHeight="7510" tabRatio="926" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1- اكتوبر وزايد" sheetId="1" r:id="rId1"/>
@@ -3613,9 +3613,9 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="$A28:$XFD28"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -3902,7 +3902,9 @@
       </c>
       <c r="C18" s="86"/>
       <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
+      <c r="E18" s="86">
+        <v>0.569444444444444</v>
+      </c>
       <c r="F18" s="87">
         <v>0.572916666666667</v>
       </c>
@@ -4038,9 +4040,7 @@
       <c r="B28" s="86"/>
       <c r="C28" s="86"/>
       <c r="D28" s="86"/>
-      <c r="E28" s="86">
-        <v>0.902777777777778</v>
-      </c>
+      <c r="E28" s="86"/>
       <c r="F28" s="86">
         <v>0.90625</v>
       </c>
@@ -6084,11 +6084,11 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A27" sqref="$A27:$XFD27"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -6417,9 +6417,7 @@
         <v>0.625</v>
       </c>
       <c r="G19" s="52"/>
-      <c r="H19" s="22">
-        <v>0.631944444444444</v>
-      </c>
+      <c r="H19" s="22"/>
     </row>
     <row r="20" ht="15.5" spans="1:9">
       <c r="A20" s="25" t="s">
@@ -6537,7 +6535,9 @@
       <c r="G26" s="52">
         <v>0.878472222222222</v>
       </c>
-      <c r="H26" s="22"/>
+      <c r="H26" s="22">
+        <v>0.881944444444444</v>
+      </c>
     </row>
     <row r="27" ht="15.5" spans="1:8">
       <c r="A27" s="23" t="s">
@@ -9823,11 +9823,11 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A31" sqref="$A31:$XFD31"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -10274,7 +10274,9 @@
         <v>0.854166666666667</v>
       </c>
       <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
+      <c r="D30" s="52">
+        <v>0.861111111111111</v>
+      </c>
       <c r="E30" s="52"/>
       <c r="F30" s="52">
         <v>0.868055555555556</v>
@@ -10429,12 +10431,12 @@
   <sheetPr/>
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="5" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A15" sqref="$A15:$XFD15"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13636363636364" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -10674,7 +10676,9 @@
         <v>42</v>
       </c>
       <c r="B22" s="39"/>
-      <c r="C22" s="25"/>
+      <c r="C22" s="25">
+        <v>0.899305555555556</v>
+      </c>
       <c r="D22" s="39"/>
       <c r="E22" s="17"/>
     </row>
@@ -10940,7 +10944,7 @@
   </sheetPr>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
